--- a/iFermentAsCkluyveri.xlsx
+++ b/iFermentAsCkluyveri.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.04461569661326293</v>
+        <v>-0.04461569661326287</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.04461569661326292</v>
+        <v>-0.04461569661326287</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.00202798620969376</v>
+        <v>0.002027986209693753</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.00202798620969376</v>
+        <v>0.002027986209693753</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.0466436828229567</v>
+        <v>-0.04664368282295666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.9999999999999976</v>
+        <v>-0.9999999999999967</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9683634151287746</v>
+        <v>0.9683634151287738</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9237477185155117</v>
+        <v>0.9237477185155109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9237477185155116</v>
+        <v>0.9237477185155109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9237477185155117</v>
+        <v>0.9237477185155107</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.608598661529098</v>
+        <v>1.608598661529096</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.05576962076657865</v>
+        <v>0.05576962076657832</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.03285337659703792</v>
+        <v>0.03285337659703828</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.06814033664570951</v>
+        <v>0.06814033664570983</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3.369701886027168</v>
+        <v>-4.549381464206029</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3.369701886027168</v>
+        <v>4.549381464206029</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.4295274792131411</v>
+        <v>0.4295274792131408</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.341798780517425e-16</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1.011871212050678e-16</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1.011871212050678e-16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3.422023930237267</v>
+        <v>4.601703508416128</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2.171973230582027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.4295274792131411</v>
+        <v>0.4295274792131407</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.2147637396065706</v>
+        <v>-0.9649158385722943</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.344960454268904</v>
+        <v>-3.3449604542689</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.344960454268904</v>
+        <v>3.3449604542689</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.9588318799432121</v>
+        <v>0.9588318799432112</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6546339484891495</v>
+        <v>-0.654633948489149</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6546339484891495</v>
+        <v>0.654633948489149</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1423646319205026</v>
+        <v>0.1423646319205023</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.1423646319205026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>0.1423646319205023</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04502129385520167</v>
+        <v>0.04502129385520163</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.04502129385520164</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7.509768303535663e-17</v>
+        <v>3.152381414159282e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>2.359359156357729</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.048874467653617</v>
+        <v>-1.048874467653616</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.048874467653617</v>
+        <v>1.048874467653616</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.0255526262421415</v>
+        <v>-0.02555262624214147</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02555262624214149</v>
+        <v>0.02555262624214147</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.2261204623808553</v>
+        <v>0.2261204623808548</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5767592780369081</v>
+        <v>0.5767592780369075</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1046440884201997</v>
+        <v>-0.1046440884201996</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1046440884201997</v>
+        <v>0.1046440884201996</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1216791725816262</v>
+        <v>0.121679172581626</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1216791725816262</v>
+        <v>0.1216791725816261</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.06814033664570951</v>
+        <v>0.06814033664570983</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.8906915432975026</v>
+        <v>0.8906915432975013</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4.165686473331973</v>
+        <v>5.345366051510833</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.380450212938541</v>
+        <v>-4.380450212938538</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.3930237274386525</v>
+        <v>-0.393023727438652</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>-1.011871212050678e-16</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1.011871212050678e-16</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1.011871212050678e-16</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1.011871212050678e-16</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-3.422023930237267</v>
+        <v>-4.601703508416128</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999966</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>-1.011871212050678e-16</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.1423646319205026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.04502129385520168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>2.171973230582027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">

--- a/iFermentAsCkluyveri.xlsx
+++ b/iFermentAsCkluyveri.xlsx
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.04461569661326287</v>
+        <v>-0.04461569661326293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.04461569661326287</v>
+        <v>-0.04461569661326292</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.002027986209693753</v>
+        <v>0.00202798620969376</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.002027986209693753</v>
+        <v>0.00202798620969376</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.04664368282295666</v>
+        <v>-0.0466436828229567</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.9999999999999967</v>
+        <v>-0.9999999999999976</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9683634151287738</v>
+        <v>0.9683634151287746</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9237477185155109</v>
+        <v>0.9237477185155117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9237477185155109</v>
+        <v>0.9237477185155116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9237477185155107</v>
+        <v>0.9237477185155117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.608598661529096</v>
+        <v>1.608598661529098</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.05576962076657832</v>
+        <v>0.05576962076657865</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.03285337659703828</v>
+        <v>0.03285337659703792</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.06814033664570983</v>
+        <v>0.06814033664570951</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4.549381464206029</v>
+        <v>-3.369701886027168</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4.549381464206029</v>
+        <v>3.369701886027168</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.4295274792131408</v>
+        <v>0.4295274792131411</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.341798780517425e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4.601703508416128</v>
+        <v>3.422023930237267</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>2.171973230582027</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.4295274792131407</v>
+        <v>0.4295274792131411</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.9649158385722943</v>
+        <v>0.2147637396065706</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.3449604542689</v>
+        <v>-3.344960454268904</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.3449604542689</v>
+        <v>3.344960454268904</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.9588318799432112</v>
+        <v>0.9588318799432121</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.654633948489149</v>
+        <v>-0.6546339484891495</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.654633948489149</v>
+        <v>0.6546339484891495</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1423646319205023</v>
+        <v>0.1423646319205026</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.1423646319205026</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.1423646319205023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04502129385520163</v>
+        <v>0.04502129385520167</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.04502129385520164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>3.152381414159282e-16</v>
+        <v>7.509768303535663e-17</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.359359156357729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.048874467653616</v>
+        <v>-1.048874467653617</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.048874467653616</v>
+        <v>1.048874467653617</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02555262624214147</v>
+        <v>-0.0255526262421415</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02555262624214147</v>
+        <v>0.02555262624214149</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.2261204623808548</v>
+        <v>0.2261204623808553</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5767592780369075</v>
+        <v>0.5767592780369081</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1046440884201996</v>
+        <v>-0.1046440884201997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1046440884201996</v>
+        <v>0.1046440884201997</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.121679172581626</v>
+        <v>0.1216791725816262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1216791725816261</v>
+        <v>0.1216791725816262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.06814033664570983</v>
+        <v>0.06814033664570951</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.8906915432975013</v>
+        <v>0.8906915432975026</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>5.345366051510833</v>
+        <v>4.165686473331973</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.380450212938538</v>
+        <v>-4.380450212938541</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.393023727438652</v>
+        <v>-0.3930237274386525</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-4.601703508416128</v>
+        <v>-3.422023930237267</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.9999999999999966</v>
+        <v>0.9999999999999973</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-1.011871212050678e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>0.1423646319205026</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>0.04502129385520168</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>2.171973230582027</v>
       </c>
     </row>
     <row r="243" spans="1:2">

--- a/iFermentAsCkluyveri.xlsx
+++ b/iFermentAsCkluyveri.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>fluxes</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>FMNRx</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.04461569661326292</v>
+        <v>-0.04461569661326295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1244,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.04461569661326291</v>
+        <v>-0.04461569661326295</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1252,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.002027986209693746</v>
+        <v>0.00202798620969376</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1260,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.002027986209693747</v>
+        <v>0.00202798620969376</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1268,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.04664368282295667</v>
+        <v>-0.04664368282295673</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1276,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.999999999999997</v>
+        <v>-0.999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1308,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9683634151287742</v>
+        <v>0.9683634151287752</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1324,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9237477185155114</v>
+        <v>0.9237477185155122</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1332,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9237477185155114</v>
+        <v>0.9237477185155122</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1340,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9237477185155111</v>
+        <v>0.9237477185155122</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1348,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.608598661529097</v>
+        <v>1.608598661529098</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1356,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.608598661529097</v>
+        <v>-1.608598661529098</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1364,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.449198945447167</v>
+        <v>-1.449198945447168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1372,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.449198945447167</v>
+        <v>1.449198945447168</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1388,7 +1394,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.0557696207665782</v>
+        <v>0.05576962076657862</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1436,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.03285337659703923</v>
+        <v>0.03285337659703784</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1444,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.06814033664571077</v>
+        <v>0.06814033664570944</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1452,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3.584465625633734</v>
+        <v>-3.584465625633738</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1468,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3.584465625633734</v>
+        <v>3.584465625633738</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1924,7 +1930,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3.636787669843833</v>
+        <v>3.636787669843838</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1956,7 +1962,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.6096126546339471</v>
+        <v>0.6096126546339459</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2084,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.344960454268902</v>
+        <v>-3.344960454268904</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2092,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.344960454268902</v>
+        <v>3.344960454268904</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2100,7 +2106,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.06814033664571077</v>
+        <v>0.06814033664570944</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2108,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.654633948489148</v>
+        <v>-0.6546339484891499</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2116,7 +2122,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.654633948489148</v>
+        <v>0.6546339484891499</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2140,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1423646319205024</v>
+        <v>0.1423646319205026</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2148,7 +2154,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.1423646319205025</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2156,7 +2162,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.1423646319205024</v>
+        <v>0.1423646319205025</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2164,7 +2170,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04502129385520163</v>
+        <v>0.0450212938552017</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2188,7 +2194,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.04502129385520164</v>
+        <v>0.04502129385520171</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2212,7 +2218,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>-3.880054966156579e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2228,7 +2234,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.048874467653616</v>
+        <v>-1.048874467653618</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2236,7 +2242,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.048874467653616</v>
+        <v>1.048874467653618</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2244,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02555262624214147</v>
+        <v>-0.02555262624214151</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2252,7 +2258,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02555262624214147</v>
+        <v>0.02555262624214151</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2260,7 +2266,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.2261204623808547</v>
+        <v>0.2261204623808553</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2268,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5767592780369075</v>
+        <v>0.5767592780369084</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2276,7 +2282,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1046440884202009</v>
+        <v>-0.1046440884201976</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2284,7 +2290,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1046440884202009</v>
+        <v>0.1046440884201976</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2300,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.121679172581626</v>
+        <v>0.1216791725816262</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2308,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1216791725816261</v>
+        <v>0.1216791725816262</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2332,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.06814033664571077</v>
+        <v>0.06814033664570944</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2628,7 +2634,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4.380450212938539</v>
+        <v>4.380450212938543</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2660,7 +2666,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.380450212938538</v>
+        <v>-4.380450212938544</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2716,7 +2722,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.3930237274386521</v>
+        <v>-0.3930237274386526</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2732,7 +2738,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-3.277428554581998e-17</v>
+        <v>-1.022149491547932e-16</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2788,7 +2794,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-3.636787669843833</v>
+        <v>-3.636787669843838</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2804,7 +2810,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.9999999999999968</v>
+        <v>0.9999999999999978</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2892,7 +2898,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.4295274792131399</v>
+        <v>0.4295274792131415</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3060,7 +3066,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.6096126546339471</v>
+        <v>0.6096126546339459</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3100,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1.320219022510642</v>
+        <v>1.320219022510645</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3108,7 +3114,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-0.8906915432975018</v>
+        <v>-0.8906915432975033</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3132,6 +3138,22 @@
         <v>250</v>
       </c>
       <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
         <v>0</v>
       </c>
     </row>
